--- a/REGULAR/CCR/FERMA, MARIA.xlsx
+++ b/REGULAR/CCR/FERMA, MARIA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9930572-3F51-4D4D-AD87-1212301FE0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="340">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1059,7 +1060,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1928,7 +1929,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1972,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,7 +2036,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2095,7 +2096,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2161,7 +2162,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +2225,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +2323,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2381,7 +2382,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2446,7 +2447,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2489,7 +2490,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +2565,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2750,7 +2751,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2816,7 +2817,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2874,7 +2875,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2940,7 +2941,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2996,7 +2997,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3071,7 +3072,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3114,7 +3115,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3180,7 +3181,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3236,7 +3237,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,7 +3335,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +3398,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3446,7 +3447,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3463,25 +3464,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K546" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K546" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3493,13 +3494,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3508,14 +3509,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3819,7 +3820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3829,7 +3830,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3837,34 +3838,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K546"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3795" topLeftCell="A506" activePane="bottomLeft"/>
+      <pane ySplit="3792" topLeftCell="A512" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="I520" sqref="I520"/>
+      <selection pane="bottomLeft" activeCell="K523" sqref="K523"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3885,7 +3886,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3903,7 +3904,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3925,7 +3926,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3933,7 +3934,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3946,7 +3947,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3963,7 +3964,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3998,7 +3999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4007,7 +4008,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>185.47999999999993</v>
+        <v>189.22999999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4017,12 +4018,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>172.875</v>
+        <v>175.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>44</v>
       </c>
@@ -4044,7 +4045,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35977</v>
       </c>
@@ -4068,7 +4069,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>36008</v>
       </c>
@@ -4094,7 +4095,7 @@
         <v>36013</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>47</v>
@@ -4116,7 +4117,7 @@
         <v>36034</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>48</v>
@@ -4136,7 +4137,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>36039</v>
       </c>
@@ -4160,7 +4161,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>36069</v>
       </c>
@@ -4186,7 +4187,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -4206,7 +4207,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>36100</v>
       </c>
@@ -4232,7 +4233,7 @@
         <v>36115</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="15" t="s">
         <v>53</v>
@@ -4254,7 +4255,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="15" t="s">
         <v>54</v>
@@ -4274,7 +4275,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>36130</v>
       </c>
@@ -4298,7 +4299,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="46" t="s">
         <v>57</v>
       </c>
@@ -4316,7 +4317,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>36161</v>
       </c>
@@ -4340,7 +4341,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>36192</v>
       </c>
@@ -4360,7 +4361,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>36220</v>
       </c>
@@ -4386,7 +4387,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>49</v>
@@ -4406,7 +4407,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>76</v>
@@ -4426,7 +4427,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>36251</v>
       </c>
@@ -4446,7 +4447,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36281</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>46</v>
@@ -4494,7 +4495,7 @@
         <v>36286</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>46</v>
@@ -4516,7 +4517,7 @@
         <v>36297</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>78</v>
@@ -4536,7 +4537,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>36312</v>
       </c>
@@ -4560,7 +4561,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>36342</v>
       </c>
@@ -4586,7 +4587,7 @@
         <v>36358</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>81</v>
@@ -4606,7 +4607,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>36373</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>83</v>
@@ -4652,7 +4653,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>36404</v>
       </c>
@@ -4678,7 +4679,7 @@
         <v>36412</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>46</v>
@@ -4700,7 +4701,7 @@
         <v>36418</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>46</v>
@@ -4722,7 +4723,7 @@
         <v>36431</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>54</v>
@@ -4742,7 +4743,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="47"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>36434</v>
       </c>
@@ -4768,7 +4769,7 @@
         <v>36434</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>85</v>
@@ -4790,7 +4791,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>46</v>
@@ -4812,7 +4813,7 @@
         <v>36447</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>85</v>
@@ -4834,7 +4835,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>36465</v>
       </c>
@@ -4860,7 +4861,7 @@
         <v>36486</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>85</v>
@@ -4882,7 +4883,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>90</v>
@@ -4902,7 +4903,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>36495</v>
       </c>
@@ -4930,7 +4931,7 @@
         <v>36509</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>91</v>
@@ -4950,7 +4951,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="46" t="s">
         <v>58</v>
       </c>
@@ -4968,7 +4969,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>36526</v>
       </c>
@@ -4988,7 +4989,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>36557</v>
       </c>
@@ -5014,7 +5015,7 @@
         <v>36566</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>46</v>
@@ -5036,7 +5037,7 @@
         <v>36580</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>81</v>
@@ -5056,7 +5057,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>36586</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>93</v>
@@ -5102,7 +5103,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>36617</v>
       </c>
@@ -5126,7 +5127,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>36647</v>
       </c>
@@ -5152,7 +5153,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>46</v>
@@ -5174,7 +5175,7 @@
         <v>36662</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>95</v>
@@ -5194,7 +5195,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36678</v>
       </c>
@@ -5214,7 +5215,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>36708</v>
       </c>
@@ -5238,7 +5239,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>36739</v>
       </c>
@@ -5262,7 +5263,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>36770</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>93</v>
@@ -5308,7 +5309,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>36800</v>
       </c>
@@ -5332,7 +5333,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>36831</v>
       </c>
@@ -5358,7 +5359,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>101</v>
@@ -5378,7 +5379,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>36861</v>
       </c>
@@ -5404,7 +5405,7 @@
         <v>36871</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>76</v>
@@ -5424,7 +5425,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>47</v>
@@ -5446,7 +5447,7 @@
         <v>36887</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>54</v>
@@ -5468,7 +5469,7 @@
         <v>36881</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="46" t="s">
         <v>59</v>
       </c>
@@ -5486,7 +5487,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>36892</v>
       </c>
@@ -5512,7 +5513,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>104</v>
@@ -5532,7 +5533,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>36923</v>
       </c>
@@ -5552,7 +5553,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>36951</v>
       </c>
@@ -5572,7 +5573,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>36982</v>
       </c>
@@ -5592,7 +5593,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>37012</v>
       </c>
@@ -5618,7 +5619,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>46</v>
@@ -5640,7 +5641,7 @@
         <v>37032</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>46</v>
@@ -5662,7 +5663,7 @@
         <v>37034</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37043</v>
       </c>
@@ -5688,7 +5689,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>107</v>
@@ -5710,7 +5711,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>76</v>
@@ -5730,7 +5731,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>37073</v>
       </c>
@@ -5750,7 +5751,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>37104</v>
       </c>
@@ -5770,7 +5771,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>37135</v>
       </c>
@@ -5790,7 +5791,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>37165</v>
       </c>
@@ -5814,7 +5815,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>37196</v>
       </c>
@@ -5840,7 +5841,7 @@
         <v>37208</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>82</v>
@@ -5862,7 +5863,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>49</v>
@@ -5882,7 +5883,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>37226</v>
       </c>
@@ -5908,7 +5909,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>88</v>
@@ -5928,7 +5929,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="46" t="s">
         <v>60</v>
       </c>
@@ -5946,7 +5947,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>37257</v>
       </c>
@@ -5970,7 +5971,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>37288</v>
       </c>
@@ -5990,7 +5991,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>37316</v>
       </c>
@@ -6016,7 +6017,7 @@
         <v>37330</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>76</v>
@@ -6036,7 +6037,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>46</v>
@@ -6058,7 +6059,7 @@
         <v>37351</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>37347</v>
       </c>
@@ -6084,7 +6085,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>37377</v>
       </c>
@@ -6104,7 +6105,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>37408</v>
       </c>
@@ -6124,7 +6125,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>37438</v>
       </c>
@@ -6144,7 +6145,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>37469</v>
       </c>
@@ -6164,7 +6165,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>37500</v>
       </c>
@@ -6190,7 +6191,7 @@
         <v>37501</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>37530</v>
       </c>
@@ -6210,7 +6211,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>37561</v>
       </c>
@@ -6236,7 +6237,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>37591</v>
       </c>
@@ -6260,7 +6261,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="46" t="s">
         <v>61</v>
       </c>
@@ -6278,7 +6279,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>37622</v>
       </c>
@@ -6298,7 +6299,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>37653</v>
       </c>
@@ -6318,7 +6319,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>37681</v>
       </c>
@@ -6342,7 +6343,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>37712</v>
       </c>
@@ -6366,7 +6367,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>74</v>
@@ -6388,7 +6389,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>121</v>
@@ -6408,7 +6409,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>37742</v>
       </c>
@@ -6428,7 +6429,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>37773</v>
       </c>
@@ -6448,7 +6449,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>37803</v>
       </c>
@@ -6468,7 +6469,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>37834</v>
       </c>
@@ -6488,7 +6489,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>37865</v>
       </c>
@@ -6512,7 +6513,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>37895</v>
       </c>
@@ -6532,7 +6533,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>37926</v>
       </c>
@@ -6558,7 +6559,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>124</v>
@@ -6578,7 +6579,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>37956</v>
       </c>
@@ -6602,7 +6603,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="46" t="s">
         <v>62</v>
       </c>
@@ -6620,7 +6621,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>37987</v>
       </c>
@@ -6640,7 +6641,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>38018</v>
       </c>
@@ -6664,7 +6665,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>38047</v>
       </c>
@@ -6688,7 +6689,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>76</v>
@@ -6708,7 +6709,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>38078</v>
       </c>
@@ -6734,7 +6735,7 @@
         <v>38093</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>127</v>
@@ -6754,7 +6755,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>38108</v>
       </c>
@@ -6780,7 +6781,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>46</v>
@@ -6802,7 +6803,7 @@
         <v>38124</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>46</v>
@@ -6824,7 +6825,7 @@
         <v>38128</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>38139</v>
       </c>
@@ -6848,7 +6849,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>38169</v>
       </c>
@@ -6872,7 +6873,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>76</v>
@@ -6892,7 +6893,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>38200</v>
       </c>
@@ -6916,7 +6917,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>38231</v>
       </c>
@@ -6936,7 +6937,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>38261</v>
       </c>
@@ -6956,7 +6957,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>38292</v>
       </c>
@@ -6982,7 +6983,7 @@
         <v>38342</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>38322</v>
       </c>
@@ -7002,7 +7003,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="46" t="s">
         <v>63</v>
       </c>
@@ -7020,7 +7021,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>38353</v>
       </c>
@@ -7046,7 +7047,7 @@
         <v>38377</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>76</v>
@@ -7066,7 +7067,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>80</v>
@@ -7086,7 +7087,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>85</v>
@@ -7108,7 +7109,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>85</v>
@@ -7130,7 +7131,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>38384</v>
       </c>
@@ -7154,7 +7155,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>38412</v>
       </c>
@@ -7180,7 +7181,7 @@
         <v>38433</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>137</v>
@@ -7200,7 +7201,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="47"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>38443</v>
       </c>
@@ -7226,7 +7227,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>140</v>
@@ -7246,7 +7247,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>38473</v>
       </c>
@@ -7270,7 +7271,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>38504</v>
       </c>
@@ -7296,7 +7297,7 @@
         <v>38523</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>141</v>
@@ -7316,7 +7317,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>38534</v>
       </c>
@@ -7342,7 +7343,7 @@
         <v>38534</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>85</v>
@@ -7364,7 +7365,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>46</v>
@@ -7386,7 +7387,7 @@
         <v>38566</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>142</v>
@@ -7406,7 +7407,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>76</v>
@@ -7426,7 +7427,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>38565</v>
       </c>
@@ -7450,7 +7451,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>38596</v>
       </c>
@@ -7474,7 +7475,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>38626</v>
       </c>
@@ -7498,7 +7499,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>38657</v>
       </c>
@@ -7520,7 +7521,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>149</v>
@@ -7540,7 +7541,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>38687</v>
       </c>
@@ -7564,7 +7565,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>76</v>
@@ -7584,7 +7585,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="46" t="s">
         <v>64</v>
       </c>
@@ -7602,7 +7603,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>38718</v>
       </c>
@@ -7628,7 +7629,7 @@
         <v>38747</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>152</v>
@@ -7648,7 +7649,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>154</v>
@@ -7668,7 +7669,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>38749</v>
       </c>
@@ -7692,7 +7693,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>38777</v>
       </c>
@@ -7716,7 +7717,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>38808</v>
       </c>
@@ -7742,7 +7743,7 @@
         <v>38832</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>46</v>
@@ -7764,7 +7765,7 @@
         <v>38839</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>138</v>
@@ -7786,7 +7787,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>85</v>
@@ -7808,7 +7809,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>46</v>
@@ -7830,7 +7831,7 @@
         <v>38860</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>148</v>
@@ -7852,7 +7853,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>157</v>
@@ -7872,7 +7873,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>38838</v>
       </c>
@@ -7896,7 +7897,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>38869</v>
       </c>
@@ -7922,7 +7923,7 @@
         <v>38882</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>162</v>
@@ -7942,7 +7943,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="47"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>38899</v>
       </c>
@@ -7966,7 +7967,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>38930</v>
       </c>
@@ -7992,7 +7993,7 @@
         <v>38938</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>46</v>
@@ -8014,7 +8015,7 @@
         <v>38959</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>164</v>
@@ -8034,7 +8035,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>38961</v>
       </c>
@@ -8060,7 +8061,7 @@
         <v>38975</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>165</v>
@@ -8080,7 +8081,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>38991</v>
       </c>
@@ -8106,7 +8107,7 @@
         <v>39003</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>166</v>
@@ -8126,7 +8127,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="47"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>39022</v>
       </c>
@@ -8150,7 +8151,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>39052</v>
       </c>
@@ -8174,7 +8175,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>168</v>
@@ -8194,7 +8195,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="46" t="s">
         <v>65</v>
       </c>
@@ -8212,7 +8213,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>39083</v>
       </c>
@@ -8236,7 +8237,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>39114</v>
       </c>
@@ -8260,7 +8261,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>39142</v>
       </c>
@@ -8286,7 +8287,7 @@
         <v>39161</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>85</v>
@@ -8308,7 +8309,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>172</v>
@@ -8328,7 +8329,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>175</v>
@@ -8348,7 +8349,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>39173</v>
       </c>
@@ -8374,7 +8375,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>178</v>
@@ -8394,7 +8395,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>39203</v>
       </c>
@@ -8420,7 +8421,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>46</v>
@@ -8442,7 +8443,7 @@
         <v>39226</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>85</v>
@@ -8464,7 +8465,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>179</v>
@@ -8484,7 +8485,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>39234</v>
       </c>
@@ -8510,7 +8511,7 @@
         <v>39246</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>46</v>
@@ -8532,7 +8533,7 @@
         <v>39255</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>182</v>
@@ -8552,7 +8553,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>39264</v>
       </c>
@@ -8576,7 +8577,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>39295</v>
       </c>
@@ -8602,7 +8603,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>185</v>
@@ -8622,7 +8623,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>39326</v>
       </c>
@@ -8646,7 +8647,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>39356</v>
       </c>
@@ -8672,7 +8673,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>136</v>
@@ -8692,7 +8693,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>39387</v>
       </c>
@@ -8718,7 +8719,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>188</v>
@@ -8738,7 +8739,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>39417</v>
       </c>
@@ -8762,7 +8763,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="46" t="s">
         <v>66</v>
       </c>
@@ -8780,7 +8781,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>39448</v>
       </c>
@@ -8804,7 +8805,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>39479</v>
       </c>
@@ -8830,7 +8831,7 @@
         <v>39486</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>191</v>
@@ -8850,7 +8851,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>39508</v>
       </c>
@@ -8876,7 +8877,7 @@
         <v>39511</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>192</v>
@@ -8896,7 +8897,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>39539</v>
       </c>
@@ -8920,7 +8921,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>138</v>
@@ -8942,7 +8943,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>46</v>
@@ -8964,7 +8965,7 @@
         <v>39567</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>193</v>
@@ -8984,7 +8985,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>39569</v>
       </c>
@@ -9008,7 +9009,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>39600</v>
       </c>
@@ -9034,7 +9035,7 @@
         <v>39617</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="15" t="s">
         <v>197</v>
@@ -9054,7 +9055,7 @@
       <c r="J234" s="12"/>
       <c r="K234" s="15"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>39630</v>
       </c>
@@ -9078,7 +9079,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>39661</v>
       </c>
@@ -9102,7 +9103,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>39692</v>
       </c>
@@ -9126,7 +9127,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>39722</v>
       </c>
@@ -9150,7 +9151,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>39753</v>
       </c>
@@ -9174,7 +9175,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>121</v>
@@ -9194,7 +9195,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>39783</v>
       </c>
@@ -9218,7 +9219,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="46" t="s">
         <v>67</v>
       </c>
@@ -9236,7 +9237,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>39814</v>
       </c>
@@ -9260,7 +9261,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>39845</v>
       </c>
@@ -9284,7 +9285,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>39873</v>
       </c>
@@ -9310,7 +9311,7 @@
         <v>39885</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>76</v>
@@ -9330,7 +9331,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>203</v>
@@ -9350,7 +9351,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>39904</v>
       </c>
@@ -9376,7 +9377,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>98</v>
@@ -9396,7 +9397,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>39934</v>
       </c>
@@ -9420,7 +9421,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>39965</v>
       </c>
@@ -9444,7 +9445,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>39995</v>
       </c>
@@ -9468,7 +9469,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>40026</v>
       </c>
@@ -9492,7 +9493,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>40057</v>
       </c>
@@ -9516,7 +9517,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>40087</v>
       </c>
@@ -9540,7 +9541,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>40118</v>
       </c>
@@ -9564,7 +9565,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>211</v>
@@ -9584,7 +9585,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>40148</v>
       </c>
@@ -9610,7 +9611,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>212</v>
@@ -9630,7 +9631,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="46" t="s">
         <v>68</v>
       </c>
@@ -9648,7 +9649,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>40179</v>
       </c>
@@ -9672,7 +9673,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>40210</v>
       </c>
@@ -9696,7 +9697,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>40238</v>
       </c>
@@ -9720,7 +9721,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>40269</v>
       </c>
@@ -9744,7 +9745,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>40299</v>
       </c>
@@ -9770,7 +9771,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>148</v>
@@ -9792,7 +9793,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>46</v>
@@ -9814,7 +9815,7 @@
         <v>40315</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>218</v>
@@ -9834,7 +9835,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>40330</v>
       </c>
@@ -9858,7 +9859,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>40360</v>
       </c>
@@ -9882,7 +9883,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>40391</v>
       </c>
@@ -9906,7 +9907,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>40422</v>
       </c>
@@ -9932,7 +9933,7 @@
         <v>40441</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>81</v>
@@ -9952,7 +9953,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="47"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>40452</v>
       </c>
@@ -9974,7 +9975,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>223</v>
@@ -9994,7 +9995,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>40483</v>
       </c>
@@ -10018,7 +10019,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>40513</v>
       </c>
@@ -10044,7 +10045,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>112</v>
@@ -10066,7 +10067,7 @@
         <v>40535</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>172</v>
@@ -10086,7 +10087,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>81</v>
@@ -10106,7 +10107,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="46" t="s">
         <v>69</v>
       </c>
@@ -10124,7 +10125,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>40544</v>
       </c>
@@ -10148,7 +10149,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>40575</v>
       </c>
@@ -10172,7 +10173,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>40603</v>
       </c>
@@ -10196,7 +10197,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>76</v>
@@ -10216,7 +10217,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>227</v>
@@ -10236,7 +10237,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>40634</v>
       </c>
@@ -10260,7 +10261,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>40664</v>
       </c>
@@ -10286,7 +10287,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>85</v>
@@ -10308,7 +10309,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>232</v>
@@ -10328,7 +10329,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>40695</v>
       </c>
@@ -10352,7 +10353,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>40725</v>
       </c>
@@ -10376,7 +10377,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>40756</v>
       </c>
@@ -10400,7 +10401,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>40787</v>
       </c>
@@ -10424,7 +10425,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>40817</v>
       </c>
@@ -10448,7 +10449,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>40848</v>
       </c>
@@ -10472,7 +10473,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>40878</v>
       </c>
@@ -10498,7 +10499,7 @@
         <v>40886</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>148</v>
@@ -10520,7 +10521,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>240</v>
@@ -10540,7 +10541,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="46" t="s">
         <v>70</v>
       </c>
@@ -10558,7 +10559,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>40909</v>
       </c>
@@ -10584,7 +10585,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>242</v>
@@ -10604,7 +10605,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>40940</v>
       </c>
@@ -10630,7 +10631,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>40969</v>
       </c>
@@ -10656,7 +10657,7 @@
         <v>40990</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>41000</v>
       </c>
@@ -10676,7 +10677,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>41030</v>
       </c>
@@ -10702,7 +10703,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>41061</v>
       </c>
@@ -10728,7 +10729,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>41091</v>
       </c>
@@ -10754,7 +10755,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>41122</v>
       </c>
@@ -10780,7 +10781,7 @@
         <v>41151</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>41153</v>
       </c>
@@ -10806,7 +10807,7 @@
         <v>41158</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>46</v>
@@ -10828,7 +10829,7 @@
         <v>41163</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>46</v>
@@ -10850,7 +10851,7 @@
         <v>41166</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>172</v>
@@ -10870,7 +10871,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>41183</v>
       </c>
@@ -10896,7 +10897,7 @@
         <v>41207</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>41214</v>
       </c>
@@ -10922,7 +10923,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>41244</v>
       </c>
@@ -10948,7 +10949,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="46" t="s">
         <v>71</v>
       </c>
@@ -10966,7 +10967,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>41275</v>
       </c>
@@ -10992,7 +10993,7 @@
         <v>41299</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>250</v>
@@ -11012,7 +11013,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>41306</v>
       </c>
@@ -11032,7 +11033,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>41334</v>
       </c>
@@ -11052,7 +11053,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>41365</v>
       </c>
@@ -11076,7 +11077,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>41395</v>
       </c>
@@ -11102,7 +11103,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>88</v>
@@ -11122,7 +11123,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>41426</v>
       </c>
@@ -11146,7 +11147,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>41456</v>
       </c>
@@ -11170,7 +11171,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>41487</v>
       </c>
@@ -11196,7 +11197,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>253</v>
@@ -11216,7 +11217,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>41518</v>
       </c>
@@ -11242,7 +11243,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>254</v>
@@ -11262,7 +11263,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>41548</v>
       </c>
@@ -11288,7 +11289,7 @@
         <v>41558</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>147</v>
@@ -11308,7 +11309,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>41579</v>
       </c>
@@ -11332,7 +11333,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>258</v>
@@ -11352,7 +11353,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>41609</v>
       </c>
@@ -11378,7 +11379,7 @@
         <v>41624</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>148</v>
@@ -11400,7 +11401,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>148</v>
@@ -11422,7 +11423,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>259</v>
@@ -11442,7 +11443,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="46" t="s">
         <v>72</v>
       </c>
@@ -11460,7 +11461,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>41640</v>
       </c>
@@ -11484,7 +11485,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>76</v>
@@ -11504,7 +11505,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>262</v>
@@ -11524,7 +11525,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>41671</v>
       </c>
@@ -11548,7 +11549,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>41699</v>
       </c>
@@ -11572,7 +11573,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>41730</v>
       </c>
@@ -11598,7 +11599,7 @@
         <v>41758</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>267</v>
@@ -11620,7 +11621,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>268</v>
@@ -11640,7 +11641,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>41760</v>
       </c>
@@ -11664,7 +11665,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>41791</v>
       </c>
@@ -11690,7 +11691,7 @@
         <v>41803</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>270</v>
@@ -11710,7 +11711,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>41821</v>
       </c>
@@ -11734,7 +11735,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>41852</v>
       </c>
@@ -11758,7 +11759,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>41883</v>
       </c>
@@ -11784,7 +11785,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>273</v>
@@ -11804,7 +11805,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>41913</v>
       </c>
@@ -11830,7 +11831,7 @@
         <v>41927</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>275</v>
@@ -11850,7 +11851,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>41944</v>
       </c>
@@ -11876,7 +11877,7 @@
         <v>41948</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>46</v>
@@ -11898,7 +11899,7 @@
         <v>41956</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>148</v>
@@ -11920,7 +11921,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>276</v>
@@ -11940,7 +11941,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>41974</v>
       </c>
@@ -11964,7 +11965,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="46" t="s">
         <v>73</v>
       </c>
@@ -11982,7 +11983,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>42005</v>
       </c>
@@ -12008,7 +12009,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>107</v>
@@ -12030,7 +12031,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>42036</v>
       </c>
@@ -12056,7 +12057,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>107</v>
@@ -12078,7 +12079,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>231</v>
@@ -12098,7 +12099,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>42064</v>
       </c>
@@ -12124,7 +12125,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>76</v>
@@ -12144,7 +12145,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>292</v>
@@ -12164,7 +12165,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>42095</v>
       </c>
@@ -12190,7 +12191,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>152</v>
@@ -12210,7 +12211,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>293</v>
@@ -12230,7 +12231,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>42125</v>
       </c>
@@ -12256,7 +12257,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>46</v>
@@ -12278,7 +12279,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>253</v>
@@ -12298,7 +12299,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>42156</v>
       </c>
@@ -12322,7 +12323,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>42186</v>
       </c>
@@ -12348,7 +12349,7 @@
         <v>42185</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>46</v>
@@ -12370,7 +12371,7 @@
         <v>42205</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>297</v>
@@ -12390,7 +12391,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>42217</v>
       </c>
@@ -12416,7 +12417,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>141</v>
@@ -12436,7 +12437,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>42248</v>
       </c>
@@ -12462,7 +12463,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>299</v>
@@ -12482,7 +12483,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>42278</v>
       </c>
@@ -12508,7 +12509,7 @@
         <v>42279</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>46</v>
@@ -12530,7 +12531,7 @@
         <v>42304</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>301</v>
@@ -12550,7 +12551,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>42309</v>
       </c>
@@ -12576,7 +12577,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>53</v>
@@ -12598,7 +12599,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>303</v>
@@ -12618,7 +12619,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>42339</v>
       </c>
@@ -12642,7 +12643,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>306</v>
@@ -12662,7 +12663,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="46" t="s">
         <v>279</v>
       </c>
@@ -12680,7 +12681,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>42370</v>
       </c>
@@ -12706,7 +12707,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>42401</v>
       </c>
@@ -12732,7 +12733,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>46</v>
@@ -12754,7 +12755,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>42430</v>
       </c>
@@ -12774,7 +12775,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>42461</v>
       </c>
@@ -12794,7 +12795,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>42491</v>
       </c>
@@ -12820,7 +12821,7 @@
         <v>42492</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>152</v>
@@ -12840,7 +12841,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>42522</v>
       </c>
@@ -12866,7 +12867,7 @@
         <v>42520</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>46</v>
@@ -12888,7 +12889,7 @@
         <v>42537</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>42552</v>
       </c>
@@ -12908,7 +12909,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>42583</v>
       </c>
@@ -12934,7 +12935,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>46</v>
@@ -12956,7 +12957,7 @@
         <v>42612</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>42614</v>
       </c>
@@ -12976,7 +12977,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>42644</v>
       </c>
@@ -13002,7 +13003,7 @@
         <v>42657</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>46</v>
@@ -13024,7 +13025,7 @@
         <v>42664</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>42675</v>
       </c>
@@ -13050,7 +13051,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>46</v>
@@ -13072,7 +13073,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>42705</v>
       </c>
@@ -13096,7 +13097,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="46" t="s">
         <v>280</v>
       </c>
@@ -13114,7 +13115,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>42736</v>
       </c>
@@ -13140,7 +13141,7 @@
         <v>42748</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>42767</v>
       </c>
@@ -13166,7 +13167,7 @@
         <v>42790</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>42795</v>
       </c>
@@ -13192,7 +13193,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>82</v>
@@ -13214,7 +13215,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>76</v>
@@ -13234,7 +13235,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>46</v>
@@ -13254,7 +13255,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="47"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>42826</v>
       </c>
@@ -13274,7 +13275,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>42856</v>
       </c>
@@ -13300,7 +13301,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>46</v>
@@ -13322,7 +13323,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>42887</v>
       </c>
@@ -13342,7 +13343,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>42917</v>
       </c>
@@ -13368,7 +13369,7 @@
         <v>42923</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>46</v>
@@ -13390,7 +13391,7 @@
         <v>46601</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>46</v>
@@ -13412,7 +13413,7 @@
         <v>42972</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>42948</v>
       </c>
@@ -13438,7 +13439,7 @@
         <v>42985</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>42979</v>
       </c>
@@ -13458,7 +13459,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>43009</v>
       </c>
@@ -13478,7 +13479,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>43040</v>
       </c>
@@ -13504,7 +13505,7 @@
         <v>43052</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>43070</v>
       </c>
@@ -13528,7 +13529,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="46" t="s">
         <v>281</v>
       </c>
@@ -13546,7 +13547,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>43101</v>
       </c>
@@ -13572,7 +13573,7 @@
         <v>43125</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>43132</v>
       </c>
@@ -13598,7 +13599,7 @@
         <v>43159</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>43160</v>
       </c>
@@ -13622,7 +13623,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>43191</v>
       </c>
@@ -13642,7 +13643,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>43221</v>
       </c>
@@ -13668,7 +13669,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>46</v>
@@ -13690,7 +13691,7 @@
         <v>43230</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>53</v>
@@ -13712,7 +13713,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>46</v>
@@ -13734,7 +13735,7 @@
         <v>43243</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>43252</v>
       </c>
@@ -13754,7 +13755,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>43282</v>
       </c>
@@ -13774,7 +13775,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>43313</v>
       </c>
@@ -13800,7 +13801,7 @@
         <v>43326</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>43344</v>
       </c>
@@ -13820,7 +13821,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>43374</v>
       </c>
@@ -13840,7 +13841,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>43405</v>
       </c>
@@ -13860,7 +13861,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>43435</v>
       </c>
@@ -13886,7 +13887,7 @@
         <v>43448</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="46" t="s">
         <v>282</v>
       </c>
@@ -13904,7 +13905,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>43466</v>
       </c>
@@ -13924,7 +13925,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>43497</v>
       </c>
@@ -13950,7 +13951,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>43525</v>
       </c>
@@ -13970,7 +13971,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>43556</v>
       </c>
@@ -13994,7 +13995,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>46</v>
@@ -14016,7 +14017,7 @@
         <v>43584</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>74</v>
@@ -14038,7 +14039,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>43586</v>
       </c>
@@ -14058,7 +14059,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>43617</v>
       </c>
@@ -14084,7 +14085,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>46</v>
@@ -14106,7 +14107,7 @@
         <v>43650</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>47</v>
@@ -14128,7 +14129,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>43647</v>
       </c>
@@ -14148,7 +14149,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>43678</v>
       </c>
@@ -14174,7 +14175,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>43709</v>
       </c>
@@ -14194,7 +14195,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>43739</v>
       </c>
@@ -14214,7 +14215,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>43770</v>
       </c>
@@ -14234,7 +14235,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>43800</v>
       </c>
@@ -14258,7 +14259,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="46" t="s">
         <v>283</v>
       </c>
@@ -14276,7 +14277,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>43831</v>
       </c>
@@ -14300,7 +14301,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>43862</v>
       </c>
@@ -14320,7 +14321,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>43891</v>
       </c>
@@ -14340,7 +14341,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>43922</v>
       </c>
@@ -14360,7 +14361,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>43952</v>
       </c>
@@ -14380,7 +14381,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>43983</v>
       </c>
@@ -14400,7 +14401,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>44013</v>
       </c>
@@ -14420,7 +14421,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>44044</v>
       </c>
@@ -14446,7 +14447,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>85</v>
@@ -14468,7 +14469,7 @@
         <v>44086</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>44075</v>
       </c>
@@ -14488,7 +14489,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>44105</v>
       </c>
@@ -14508,7 +14509,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>44136</v>
       </c>
@@ -14528,7 +14529,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>44166</v>
       </c>
@@ -14554,7 +14555,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="46" t="s">
         <v>284</v>
       </c>
@@ -14572,7 +14573,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>44197</v>
       </c>
@@ -14592,7 +14593,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>44228</v>
       </c>
@@ -14612,7 +14613,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>44256</v>
       </c>
@@ -14632,7 +14633,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>44287</v>
       </c>
@@ -14652,7 +14653,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>44317</v>
       </c>
@@ -14672,7 +14673,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>44348</v>
       </c>
@@ -14692,7 +14693,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>44378</v>
       </c>
@@ -14712,7 +14713,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>44409</v>
       </c>
@@ -14732,7 +14733,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>44440</v>
       </c>
@@ -14752,7 +14753,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>44470</v>
       </c>
@@ -14772,7 +14773,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>44501</v>
       </c>
@@ -14792,7 +14793,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>44531</v>
       </c>
@@ -14816,7 +14817,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="46" t="s">
         <v>326</v>
       </c>
@@ -14834,7 +14835,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>44562</v>
       </c>
@@ -14854,7 +14855,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>44593</v>
       </c>
@@ -14874,7 +14875,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>44621</v>
       </c>
@@ -14898,7 +14899,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>44652</v>
       </c>
@@ -14918,7 +14919,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>44682</v>
       </c>
@@ -14944,7 +14945,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>46</v>
@@ -14966,7 +14967,7 @@
         <v>44711</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>44713</v>
       </c>
@@ -14990,7 +14991,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>44743</v>
       </c>
@@ -15014,7 +15015,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>44774</v>
       </c>
@@ -15040,7 +15041,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>44805</v>
       </c>
@@ -15066,7 +15067,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>44835</v>
       </c>
@@ -15086,7 +15087,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>44866</v>
       </c>
@@ -15112,7 +15113,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>44896</v>
       </c>
@@ -15132,7 +15133,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="46" t="s">
         <v>333</v>
       </c>
@@ -15150,7 +15151,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>44927</v>
       </c>
@@ -15170,7 +15171,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>44958</v>
       </c>
@@ -15190,7 +15191,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>44986</v>
       </c>
@@ -15210,7 +15211,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>45017</v>
       </c>
@@ -15234,7 +15235,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>152</v>
@@ -15254,7 +15255,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>47</v>
@@ -15276,7 +15277,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>45047</v>
       </c>
@@ -15302,7 +15303,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>53</v>
@@ -15324,7 +15325,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>53</v>
@@ -15346,7 +15347,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>46</v>
@@ -15368,7 +15369,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>45078</v>
       </c>
@@ -15388,7 +15389,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>45108</v>
       </c>
@@ -15414,7 +15415,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="50"/>
       <c r="B518" s="15" t="s">
         <v>74</v>
@@ -15436,7 +15437,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>45139</v>
       </c>
@@ -15462,20 +15463,22 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>45170</v>
       </c>
       <c r="B520" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C520" s="13"/>
+      <c r="C520" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D520" s="39"/>
       <c r="E520" s="9"/>
       <c r="F520" s="20"/>
-      <c r="G520" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G520" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H520" s="39">
         <v>1</v>
@@ -15486,40 +15489,56 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A521" s="40"/>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A521" s="40">
+        <v>45200</v>
+      </c>
       <c r="B521" s="20"/>
-      <c r="C521" s="13"/>
+      <c r="C521" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D521" s="39"/>
       <c r="E521" s="9"/>
       <c r="F521" s="20"/>
-      <c r="G521" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G521" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H521" s="39"/>
       <c r="I521" s="9"/>
       <c r="J521" s="11"/>
       <c r="K521" s="15"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A522" s="40"/>
-      <c r="B522" s="20"/>
-      <c r="C522" s="13"/>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A522" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B522" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C522" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D522" s="39"/>
       <c r="E522" s="9"/>
       <c r="F522" s="20"/>
-      <c r="G522" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H522" s="39"/>
+      <c r="G522" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H522" s="39">
+        <v>1</v>
+      </c>
       <c r="I522" s="9"/>
       <c r="J522" s="11"/>
-      <c r="K522" s="15"/>
-    </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A523" s="40"/>
+      <c r="K522" s="48">
+        <v>45254</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A523" s="40">
+        <v>45261</v>
+      </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
       <c r="D523" s="39"/>
@@ -15534,8 +15553,10 @@
       <c r="J523" s="11"/>
       <c r="K523" s="15"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A524" s="40"/>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A524" s="40">
+        <v>45292</v>
+      </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
       <c r="D524" s="39"/>
@@ -15550,7 +15571,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="15"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15566,7 +15587,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="15"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40"/>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15582,7 +15603,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="15"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15598,7 +15619,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="15"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15614,7 +15635,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="15"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15630,7 +15651,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="15"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15646,7 +15667,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="15"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15662,7 +15683,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="15"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15678,7 +15699,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="15"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15694,7 +15715,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="15"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15710,7 +15731,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="15"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15726,7 +15747,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="15"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15742,7 +15763,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="15"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15758,7 +15779,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="15"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15774,7 +15795,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="15"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15790,7 +15811,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="15"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15806,7 +15827,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="15"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15822,7 +15843,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="15"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40"/>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15838,7 +15859,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="15"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15854,7 +15875,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="15"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15870,7 +15891,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="15"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15886,7 +15907,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="15"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40"/>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15917,10 +15938,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15943,7 +15964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -15951,21 +15972,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -15978,7 +15999,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16007,7 +16028,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>16.859000000000002</v>
       </c>
@@ -16035,17 +16056,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16066,7 +16087,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16093,7 +16114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16119,7 +16140,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16145,7 +16166,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16171,7 +16192,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16197,7 +16218,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16223,7 +16244,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16249,7 +16270,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16275,7 +16296,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16295,7 +16316,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16315,7 +16336,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16335,7 +16356,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16356,7 +16377,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16377,7 +16398,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16398,7 +16419,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16419,7 +16440,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16440,7 +16461,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16461,7 +16482,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16482,7 +16503,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16503,7 +16524,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16524,7 +16545,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16545,7 +16566,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16566,7 +16587,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16587,7 +16608,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16608,7 +16629,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16629,7 +16650,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16650,7 +16671,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16671,7 +16692,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16692,7 +16713,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16713,7 +16734,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16734,7 +16755,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16755,7 +16776,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16764,7 +16785,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16773,7 +16794,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16782,7 +16803,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16791,7 +16812,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16800,7 +16821,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16809,7 +16830,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16818,7 +16839,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16827,7 +16848,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16836,7 +16857,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16845,7 +16866,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16854,7 +16875,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16863,7 +16884,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16872,7 +16893,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16881,7 +16902,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16890,7 +16911,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16899,7 +16920,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16908,7 +16929,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16917,7 +16938,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16926,7 +16947,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16935,7 +16956,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16944,7 +16965,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16953,7 +16974,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16962,7 +16983,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16971,7 +16992,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16980,7 +17001,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16989,7 +17010,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16998,7 +17019,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17007,7 +17028,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17016,7 +17037,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
